--- a/res/primas_est.xlsx
+++ b/res/primas_est.xlsx
@@ -389,10 +389,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>170455.8017447299</v>
+        <v>224835.4885946044</v>
       </c>
       <c r="D2">
-        <v>1578264.428395755</v>
+        <v>3790855.976281661</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>182510.3762972073</v>
+        <v>231122.924589571</v>
       </c>
       <c r="D3">
-        <v>1706890.844748036</v>
+        <v>3733878.190028414</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>127460.0165028812</v>
+        <v>228178.1897206418</v>
       </c>
       <c r="D4">
-        <v>859141.3156268928</v>
+        <v>3740608.861353774</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>184060.5676016795</v>
+        <v>193702.6816569892</v>
       </c>
       <c r="D5">
-        <v>2766949.703395048</v>
+        <v>3429731.371422064</v>
       </c>
     </row>
     <row r="6">
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>208633.0449657569</v>
+        <v>246464.5856976606</v>
       </c>
       <c r="D6">
-        <v>2567845.769325807</v>
+        <v>3958549.750878645</v>
       </c>
     </row>
     <row r="7">
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>267724.6218127907</v>
+        <v>195664.2742033188</v>
       </c>
       <c r="D7">
-        <v>7917422.542614459</v>
+        <v>3651835.201121544</v>
       </c>
     </row>
     <row r="8">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>188183.3952301327</v>
+        <v>247882.9973010101</v>
       </c>
       <c r="D8">
-        <v>2681566.631704317</v>
+        <v>3983418.218246036</v>
       </c>
     </row>
     <row r="9">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>174422.1607488812</v>
+        <v>207373.3389586952</v>
       </c>
       <c r="D9">
-        <v>1948103.554468482</v>
+        <v>3636808.255392936</v>
       </c>
     </row>
     <row r="10">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>199709.4515899899</v>
+        <v>253105.5387398126</v>
       </c>
       <c r="D10">
-        <v>1296242.760797566</v>
+        <v>4042247.289704017</v>
       </c>
     </row>
     <row r="11">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>161492.8436378416</v>
+        <v>207995.7497929059</v>
       </c>
       <c r="D11">
-        <v>2043780.211844275</v>
+        <v>3888496.859369458</v>
       </c>
     </row>
     <row r="12">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>358671.5923614693</v>
+        <v>259104.7061619817</v>
       </c>
       <c r="D12">
-        <v>10577038.0575533</v>
+        <v>4246814.564801579</v>
       </c>
     </row>
     <row r="13">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>192134.5835527723</v>
+        <v>207186.5951117504</v>
       </c>
       <c r="D13">
-        <v>3025653.415817813</v>
+        <v>3758863.777747365</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>235767.7842828113</v>
+        <v>268374.1560206779</v>
       </c>
       <c r="D14">
-        <v>1569079.03017307</v>
+        <v>4288824.469835876</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>502788.3534597151</v>
+        <v>216945.988439648</v>
       </c>
       <c r="D15">
-        <v>18080478.52013645</v>
+        <v>3853636.06843378</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>169097.1813576639</v>
+        <v>279314.283065696</v>
       </c>
       <c r="D16">
-        <v>922925.3115387084</v>
+        <v>4453423.000444919</v>
       </c>
     </row>
     <row r="17">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>144352.2113287665</v>
+        <v>219954.0049815297</v>
       </c>
       <c r="D17">
-        <v>2064901.141840342</v>
+        <v>3972032.546761305</v>
       </c>
     </row>
     <row r="18">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>231911.0126432529</v>
+        <v>277164.8684765767</v>
       </c>
       <c r="D18">
-        <v>3802992.109587287</v>
+        <v>4473114.063489262</v>
       </c>
     </row>
     <row r="19">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>228205.5690915254</v>
+        <v>230263.2638975772</v>
       </c>
       <c r="D19">
-        <v>2090878.255889127</v>
+        <v>4230334.392063143</v>
       </c>
     </row>
     <row r="20">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>251376.0445876122</v>
+        <v>289548.4665661777</v>
       </c>
       <c r="D20">
-        <v>3098914.497586378</v>
+        <v>4663377.59192438</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>211699.4909634574</v>
+        <v>237311.2051788951</v>
       </c>
       <c r="D21">
-        <v>2094787.668768427</v>
+        <v>4439494.434749405</v>
       </c>
     </row>
     <row r="22">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>448725.6399156743</v>
+        <v>297700.6482543834</v>
       </c>
       <c r="D22">
-        <v>14087599.15892544</v>
+        <v>4658373.325958394</v>
       </c>
     </row>
     <row r="23">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>351016.7892012784</v>
+        <v>247714.3051367151</v>
       </c>
       <c r="D23">
-        <v>7285032.87166298</v>
+        <v>4646061.830291381</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>298617.3106968841</v>
+        <v>304864.6798613678</v>
       </c>
       <c r="D24">
-        <v>4438052.471906094</v>
+        <v>4760693.01492082</v>
       </c>
     </row>
     <row r="25">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>220438.5828310601</v>
+        <v>244564.3134874057</v>
       </c>
       <c r="D25">
-        <v>3244578.14537122</v>
+        <v>4477680.397423456</v>
       </c>
     </row>
     <row r="26">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>378703.542899396</v>
+        <v>314595.9780283827</v>
       </c>
       <c r="D26">
-        <v>5466492.725519838</v>
+        <v>5026252.365695414</v>
       </c>
     </row>
     <row r="27">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>180496.5744105152</v>
+        <v>256404.5057923071</v>
       </c>
       <c r="D27">
-        <v>2102163.78082831</v>
+        <v>4956759.370914108</v>
       </c>
     </row>
     <row r="28">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>223453.4949654684</v>
+        <v>330651.5665392577</v>
       </c>
       <c r="D28">
-        <v>2449928.742910497</v>
+        <v>5443094.129669208</v>
       </c>
     </row>
     <row r="29">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>198017.2265607835</v>
+        <v>269996.420361887</v>
       </c>
       <c r="D29">
-        <v>1859926.933325584</v>
+        <v>5003107.958171259</v>
       </c>
     </row>
     <row r="30">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>631567.6683844171</v>
+        <v>330916.2161067968</v>
       </c>
       <c r="D30">
-        <v>12382395.27056124</v>
+        <v>5289632.481632181</v>
       </c>
     </row>
     <row r="31">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>227004.1424955737</v>
+        <v>272253.0787493167</v>
       </c>
       <c r="D31">
-        <v>3175766.014226538</v>
+        <v>5256914.208068023</v>
       </c>
     </row>
     <row r="32">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>381448.1343258338</v>
+        <v>341124.9252434727</v>
       </c>
       <c r="D32">
-        <v>8848866.452631654</v>
+        <v>5683630.428519193</v>
       </c>
     </row>
     <row r="33">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>205114.7459019145</v>
+        <v>280672.5169656305</v>
       </c>
       <c r="D33">
-        <v>2309482.906777797</v>
+        <v>5306216.487665121</v>
       </c>
     </row>
     <row r="34">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>309921.8223210648</v>
+        <v>354602.240592433</v>
       </c>
       <c r="D34">
-        <v>3254645.874154051</v>
+        <v>6001945.815559199</v>
       </c>
     </row>
     <row r="35">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>285137.288487266</v>
+        <v>295882.9558533917</v>
       </c>
       <c r="D35">
-        <v>3793974.526853592</v>
+        <v>5845413.001522716</v>
       </c>
     </row>
     <row r="36">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>432400.6827453919</v>
+        <v>371780.1875714363</v>
       </c>
       <c r="D36">
-        <v>7117952.425965814</v>
+        <v>6007725.981398932</v>
       </c>
     </row>
     <row r="37">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>359014.4292850277</v>
+        <v>307121.1606312305</v>
       </c>
       <c r="D37">
-        <v>7008191.248542231</v>
+        <v>5796563.883991712</v>
       </c>
     </row>
     <row r="38">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>628834.0719253764</v>
+        <v>376900.0070626488</v>
       </c>
       <c r="D38">
-        <v>18243825.01929031</v>
+        <v>6237651.932332178</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>238756.0449298623</v>
+        <v>315141.3605453873</v>
       </c>
       <c r="D39">
-        <v>3079042.397376318</v>
+        <v>6115343.77926743</v>
       </c>
     </row>
     <row r="40">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>286550.9697167862</v>
+        <v>395736.3848630947</v>
       </c>
       <c r="D40">
-        <v>3465903.831664284</v>
+        <v>6594699.570242135</v>
       </c>
     </row>
     <row r="41">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>272511.6357140167</v>
+        <v>332151.8833788686</v>
       </c>
       <c r="D41">
-        <v>4595149.47673385</v>
+        <v>6408389.21892773</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>403139.6187101636</v>
+        <v>414340.4512795917</v>
       </c>
       <c r="D42">
-        <v>5834662.15028402</v>
+        <v>7083678.377894247</v>
       </c>
     </row>
     <row r="43">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>134291.6142052994</v>
+        <v>337174.9689458029</v>
       </c>
       <c r="D43">
-        <v>1323467.648682033</v>
+        <v>6272715.131849675</v>
       </c>
     </row>
     <row r="44">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>888659.2428171446</v>
+        <v>434562.1452105253</v>
       </c>
       <c r="D44">
-        <v>24519464.45757512</v>
+        <v>7483315.324386666</v>
       </c>
     </row>
     <row r="45">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>256388.2817464925</v>
+        <v>348270.1869347201</v>
       </c>
       <c r="D45">
-        <v>2154101.078474332</v>
+        <v>7216531.563695573</v>
       </c>
     </row>
     <row r="46">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>338920.3909769278</v>
+        <v>439695.8526642642</v>
       </c>
       <c r="D46">
-        <v>2942776.735075685</v>
+        <v>7306860.250600359</v>
       </c>
     </row>
     <row r="47">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>255223.0987356354</v>
+        <v>361068.3874859225</v>
       </c>
       <c r="D47">
-        <v>2344779.547921554</v>
+        <v>7375225.701111062</v>
       </c>
     </row>
     <row r="48">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>338608.8819670727</v>
+        <v>452646.2191668479</v>
       </c>
       <c r="D48">
-        <v>2047926.65936142</v>
+        <v>7717742.77898027</v>
       </c>
     </row>
     <row r="49">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>575121.72262636</v>
+        <v>375941.8418153134</v>
       </c>
       <c r="D49">
-        <v>13934918.86762523</v>
+        <v>7407943.433461562</v>
       </c>
     </row>
     <row r="50">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>402782.862792682</v>
+        <v>475111.3979341791</v>
       </c>
       <c r="D50">
-        <v>6805702.633847618</v>
+        <v>8171725.693400482</v>
       </c>
     </row>
     <row r="51">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>330690.0540318582</v>
+        <v>398449.618121041</v>
       </c>
       <c r="D51">
-        <v>3738831.738595048</v>
+        <v>8187788.709058062</v>
       </c>
     </row>
     <row r="52">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>513616.497891343</v>
+        <v>486933.7983064888</v>
       </c>
       <c r="D52">
-        <v>10868725.908734</v>
+        <v>8201815.034154096</v>
       </c>
     </row>
     <row r="53">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>256106.5713670741</v>
+        <v>405395.3103687125</v>
       </c>
       <c r="D53">
-        <v>2290709.866385913</v>
+        <v>8398869.338449296</v>
       </c>
     </row>
     <row r="54">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>510214.5814237984</v>
+        <v>521729.5269609775</v>
       </c>
       <c r="D54">
-        <v>4176273.898866138</v>
+        <v>9309397.855613323</v>
       </c>
     </row>
     <row r="55">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>478655.3177226992</v>
+        <v>428122.0387365142</v>
       </c>
       <c r="D55">
-        <v>10099584.4241351</v>
+        <v>8786848.773638571</v>
       </c>
     </row>
     <row r="56">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>632049.4738525638</v>
+        <v>539880.2394642982</v>
       </c>
       <c r="D56">
-        <v>9848453.777296279</v>
+        <v>9722258.439742075</v>
       </c>
     </row>
     <row r="57">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>429320.0830699205</v>
+        <v>442538.0567084525</v>
       </c>
       <c r="D57">
-        <v>7030433.06072353</v>
+        <v>9509103.116317932</v>
       </c>
     </row>
     <row r="58">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>805923.9697661804</v>
+        <v>566743.4314630318</v>
       </c>
       <c r="D58">
-        <v>14861264.07315356</v>
+        <v>10411172.17021675</v>
       </c>
     </row>
     <row r="59">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>1039746.068691909</v>
+        <v>450310.3911179852</v>
       </c>
       <c r="D59">
-        <v>30556272.24587034</v>
+        <v>9814136.573801987</v>
       </c>
     </row>
     <row r="60">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>638447.2710506399</v>
+        <v>588291.3453801589</v>
       </c>
       <c r="D60">
-        <v>6305369.329554896</v>
+        <v>10651531.50533955</v>
       </c>
     </row>
     <row r="61">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>388769.1003973105</v>
+        <v>473215.2083666567</v>
       </c>
       <c r="D61">
-        <v>5449000.476641834</v>
+        <v>9965581.575594407</v>
       </c>
     </row>
     <row r="62">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>577761.4067737821</v>
+        <v>604256.9529331543</v>
       </c>
       <c r="D62">
-        <v>12205093.55879069</v>
+        <v>10672263.15056216</v>
       </c>
     </row>
     <row r="63">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>489476.4799582279</v>
+        <v>488306.9313751507</v>
       </c>
       <c r="D63">
-        <v>6403295.45854141</v>
+        <v>10627412.88308293</v>
       </c>
     </row>
     <row r="64">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>456753.5211704148</v>
+        <v>635174.4085525</v>
       </c>
       <c r="D64">
-        <v>3885358.99952519</v>
+        <v>11589105.40096766</v>
       </c>
     </row>
     <row r="65">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>1159959.915803239</v>
+        <v>509635.8067099658</v>
       </c>
       <c r="D65">
-        <v>31624685.23306665</v>
+        <v>10937771.75074042</v>
       </c>
     </row>
     <row r="66">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>584005.9266983317</v>
+        <v>663777.9669723929</v>
       </c>
       <c r="D66">
-        <v>7205783.222492408</v>
+        <v>11828699.46755049</v>
       </c>
     </row>
     <row r="67">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>628330.0831822751</v>
+        <v>535737.9011996423</v>
       </c>
       <c r="D67">
-        <v>14353263.59001678</v>
+        <v>11800669.86064315</v>
       </c>
     </row>
     <row r="68">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>509295.4895478596</v>
+        <v>703463.8566378691</v>
       </c>
       <c r="D68">
-        <v>4586898.72739052</v>
+        <v>13070363.7578109</v>
       </c>
     </row>
     <row r="69">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>541595.0324521787</v>
+        <v>555912.7821239176</v>
       </c>
       <c r="D69">
-        <v>7048537.480098454</v>
+        <v>12193770.0540021</v>
       </c>
     </row>
     <row r="70">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>452156.5824771611</v>
+        <v>730647.8631268999</v>
       </c>
       <c r="D70">
-        <v>4175003.2586204</v>
+        <v>13504894.77225317</v>
       </c>
     </row>
     <row r="71">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>1396621.439330075</v>
+        <v>586545.1080641474</v>
       </c>
       <c r="D71">
-        <v>42835383.79631218</v>
+        <v>12588809.97686623</v>
       </c>
     </row>
     <row r="72">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>663392.6245472041</v>
+        <v>777339.582129105</v>
       </c>
       <c r="D72">
-        <v>7571703.608699024</v>
+        <v>14837852.51632469</v>
       </c>
     </row>
     <row r="73">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>418512.8635232938</v>
+        <v>592447.5967144662</v>
       </c>
       <c r="D73">
-        <v>6149859.754784526</v>
+        <v>12722246.54436351</v>
       </c>
     </row>
     <row r="74">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>946248.0898829311</v>
+        <v>791345.8971364649</v>
       </c>
       <c r="D74">
-        <v>11812004.45987936</v>
+        <v>14986603.78961671</v>
       </c>
     </row>
     <row r="75">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>533542.1615011593</v>
+        <v>617845.4212329453</v>
       </c>
       <c r="D75">
-        <v>3876004.583832609</v>
+        <v>13747717.44090352</v>
       </c>
     </row>
     <row r="76">
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>650795.7257668299</v>
+        <v>851169.4986966347</v>
       </c>
       <c r="D76">
-        <v>5078048.381878288</v>
+        <v>16713721.95441804</v>
       </c>
     </row>
     <row r="77">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>475668.9898180655</v>
+        <v>650308.6583429801</v>
       </c>
       <c r="D77">
-        <v>7390324.043179521</v>
+        <v>14690731.59699962</v>
       </c>
     </row>
     <row r="78">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>927089.0998410818</v>
+        <v>890249.5406403703</v>
       </c>
       <c r="D78">
-        <v>11823039.92194715</v>
+        <v>17082082.55285689</v>
       </c>
     </row>
     <row r="79">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>1090068.152798094</v>
+        <v>668465.5021828348</v>
       </c>
       <c r="D79">
-        <v>13945366.82192749</v>
+        <v>15038260.24479509</v>
       </c>
     </row>
     <row r="80">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>823246.3474316068</v>
+        <v>914832.6897777014</v>
       </c>
       <c r="D80">
-        <v>9333508.917097557</v>
+        <v>16935891.52299247</v>
       </c>
     </row>
     <row r="81">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>497097.7950896613</v>
+        <v>690757.6239196802</v>
       </c>
       <c r="D81">
-        <v>3572427.260589912</v>
+        <v>16042230.76317083</v>
       </c>
     </row>
     <row r="82">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>592746.6079889542</v>
+        <v>953520.5410021156</v>
       </c>
       <c r="D82">
-        <v>3740977.292897947</v>
+        <v>17757870.11364825</v>
       </c>
     </row>
     <row r="83">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>685385.2568516427</v>
+        <v>693045.0494547768</v>
       </c>
       <c r="D83">
-        <v>7924155.610848457</v>
+        <v>15038260.24479509</v>
       </c>
     </row>
     <row r="84">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>829149.4377464859</v>
+        <v>980967.5735029543</v>
       </c>
       <c r="D84">
-        <v>7941697.257908754</v>
+        <v>17728229.69837024</v>
       </c>
     </row>
     <row r="85">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>676717.0266282057</v>
+        <v>711724.1816840619</v>
       </c>
       <c r="D85">
-        <v>10185782.99804557</v>
+        <v>15040311.03505975</v>
       </c>
     </row>
     <row r="86">
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>597257.1985830108</v>
+        <v>737180.0616128559</v>
       </c>
       <c r="D86">
-        <v>8415453.285071045</v>
+        <v>15751905.0000233</v>
       </c>
     </row>
     <row r="87">
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>1338544.744811154</v>
+        <v>1051442.435492959</v>
       </c>
       <c r="D87">
-        <v>25334111.44157628</v>
+        <v>18420690.50386007</v>
       </c>
     </row>
     <row r="88">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>696091.1316173286</v>
+        <v>736671.6648618352</v>
       </c>
       <c r="D88">
-        <v>13600229.60072298</v>
+        <v>14865293.81645909</v>
       </c>
     </row>
     <row r="89">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>1093507.082219517</v>
+        <v>1105001.315715532</v>
       </c>
       <c r="D89">
-        <v>8531676.458648829</v>
+        <v>18908165.72564171</v>
       </c>
     </row>
     <row r="90">
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>406285.1792971808</v>
+        <v>771380.1591834365</v>
       </c>
       <c r="D90">
-        <v>3193799.855368716</v>
+        <v>14511918.0656373</v>
       </c>
     </row>
   </sheetData>

--- a/res/primas_est.xlsx
+++ b/res/primas_est.xlsx
@@ -389,10 +389,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>224835.4885946044</v>
+        <v>221256.0119156509</v>
       </c>
       <c r="D2">
-        <v>3790855.976281661</v>
+        <v>3422477.275552022</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>231122.924589571</v>
+        <v>224419.1753371014</v>
       </c>
       <c r="D3">
-        <v>3733878.190028414</v>
+        <v>3695224.431473471</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>228178.1897206418</v>
+        <v>227687.353015196</v>
       </c>
       <c r="D4">
-        <v>3740608.861353774</v>
+        <v>3683393.532023574</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>193702.6816569892</v>
+        <v>190498.5015458681</v>
       </c>
       <c r="D5">
-        <v>3429731.371422064</v>
+        <v>3425452.313773565</v>
       </c>
     </row>
     <row r="6">
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>246464.5856976606</v>
+        <v>244084.8565856979</v>
       </c>
       <c r="D6">
-        <v>3958549.750878645</v>
+        <v>4088291.55145662</v>
       </c>
     </row>
     <row r="7">
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>195664.2742033188</v>
+        <v>193608.7253451185</v>
       </c>
       <c r="D7">
-        <v>3651835.201121544</v>
+        <v>3393375.323172114</v>
       </c>
     </row>
     <row r="8">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>247882.9973010101</v>
+        <v>249461.8988108119</v>
       </c>
       <c r="D8">
-        <v>3983418.218246036</v>
+        <v>4178151.744638246</v>
       </c>
     </row>
     <row r="9">
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>207373.3389586952</v>
+        <v>203665.9327244572</v>
       </c>
       <c r="D9">
-        <v>3636808.255392936</v>
+        <v>3711506.320548352</v>
       </c>
     </row>
     <row r="10">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>253105.5387398126</v>
+        <v>251979.9209096307</v>
       </c>
       <c r="D10">
-        <v>4042247.289704017</v>
+        <v>3858151.119819787</v>
       </c>
     </row>
     <row r="11">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>207995.7497929059</v>
+        <v>205446.0283845126</v>
       </c>
       <c r="D11">
-        <v>3888496.859369458</v>
+        <v>3864598.44974662</v>
       </c>
     </row>
     <row r="12">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>259104.7061619817</v>
+        <v>272278.0320625519</v>
       </c>
       <c r="D12">
-        <v>4246814.564801579</v>
+        <v>4594718.904175448</v>
       </c>
     </row>
     <row r="13">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>207186.5951117504</v>
+        <v>214366.2619969563</v>
       </c>
       <c r="D13">
-        <v>3758863.777747365</v>
+        <v>3919782.63430411</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>268374.1560206779</v>
+        <v>270950.1098396399</v>
       </c>
       <c r="D14">
-        <v>4288824.469835876</v>
+        <v>4288021.745551297</v>
       </c>
     </row>
     <row r="15">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>216945.988439648</v>
+        <v>213453.6110425235</v>
       </c>
       <c r="D15">
-        <v>3853636.06843378</v>
+        <v>3944429.967190274</v>
       </c>
     </row>
     <row r="16">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>279314.283065696</v>
+        <v>273036.1947756769</v>
       </c>
       <c r="D16">
-        <v>4453423.000444919</v>
+        <v>4179768.559705154</v>
       </c>
     </row>
     <row r="17">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>219954.0049815297</v>
+        <v>221248.3222314887</v>
       </c>
       <c r="D17">
-        <v>3972032.546761305</v>
+        <v>3994954.224906953</v>
       </c>
     </row>
     <row r="18">
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>277164.8684765767</v>
+        <v>280684.2142971985</v>
       </c>
       <c r="D18">
-        <v>4473114.063489262</v>
+        <v>4451530.146053988</v>
       </c>
     </row>
     <row r="19">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>230263.2638975772</v>
+        <v>228376.5210189927</v>
       </c>
       <c r="D19">
-        <v>4230334.392063143</v>
+        <v>4175988.417739597</v>
       </c>
     </row>
     <row r="20">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>289548.4665661777</v>
+        <v>291220.609505253</v>
       </c>
       <c r="D20">
-        <v>4663377.59192438</v>
+        <v>4425476.984015712</v>
       </c>
     </row>
     <row r="21">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>237311.2051788951</v>
+        <v>232984.5206718883</v>
       </c>
       <c r="D21">
-        <v>4439494.434749405</v>
+        <v>4348217.733847673</v>
       </c>
     </row>
     <row r="22">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>297700.6482543834</v>
+        <v>306612.9887734475</v>
       </c>
       <c r="D22">
-        <v>4658373.325958394</v>
+        <v>5076417.959471594</v>
       </c>
     </row>
     <row r="23">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>247714.3051367151</v>
+        <v>236285.721801224</v>
       </c>
       <c r="D23">
-        <v>4646061.830291381</v>
+        <v>4287254.257333521</v>
       </c>
     </row>
     <row r="24">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>304864.6798613678</v>
+        <v>302342.5963971037</v>
       </c>
       <c r="D24">
-        <v>4760693.01492082</v>
+        <v>4908186.929793447</v>
       </c>
     </row>
     <row r="25">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>244564.3134874057</v>
+        <v>251135.6704706597</v>
       </c>
       <c r="D25">
-        <v>4477680.397423456</v>
+        <v>4773490.037980997</v>
       </c>
     </row>
     <row r="26">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>314595.9780283827</v>
+        <v>305652.4737831229</v>
       </c>
       <c r="D26">
-        <v>5026252.365695414</v>
+        <v>4715354.581877017</v>
       </c>
     </row>
     <row r="27">
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>256404.5057923071</v>
+        <v>259139.1156246568</v>
       </c>
       <c r="D27">
-        <v>4956759.370914108</v>
+        <v>4917926.580449407</v>
       </c>
     </row>
     <row r="28">
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>330651.5665392577</v>
+        <v>322668.2028001731</v>
       </c>
       <c r="D28">
-        <v>5443094.129669208</v>
+        <v>4930322.877691956</v>
       </c>
     </row>
     <row r="29">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>269996.420361887</v>
+        <v>266162.7967534221</v>
       </c>
       <c r="D29">
-        <v>5003107.958171259</v>
+        <v>5161704.260317952</v>
       </c>
     </row>
     <row r="30">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>330916.2161067968</v>
+        <v>334948.7451304563</v>
       </c>
       <c r="D30">
-        <v>5289632.481632181</v>
+        <v>5507937.440639526</v>
       </c>
     </row>
     <row r="31">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>272253.0787493167</v>
+        <v>279514.6027520395</v>
       </c>
       <c r="D31">
-        <v>5256914.208068023</v>
+        <v>5383463.456119617</v>
       </c>
     </row>
     <row r="32">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>341124.9252434727</v>
+        <v>353356.0068081737</v>
       </c>
       <c r="D32">
-        <v>5683630.428519193</v>
+        <v>5763468.487700545</v>
       </c>
     </row>
     <row r="33">
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>280672.5169656305</v>
+        <v>286603.632275967</v>
       </c>
       <c r="D33">
-        <v>5306216.487665121</v>
+        <v>5582611.194009529</v>
       </c>
     </row>
     <row r="34">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>354602.240592433</v>
+        <v>366065.1761428859</v>
       </c>
       <c r="D34">
-        <v>6001945.815559199</v>
+        <v>6002508.940028012</v>
       </c>
     </row>
     <row r="35">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>295882.9558533917</v>
+        <v>289257.1346773715</v>
       </c>
       <c r="D35">
-        <v>5845413.001522716</v>
+        <v>5594011.604508459</v>
       </c>
     </row>
     <row r="36">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>371780.1875714363</v>
+        <v>372940.6399203328</v>
       </c>
       <c r="D36">
-        <v>6007725.981398932</v>
+        <v>5979754.917050593</v>
       </c>
     </row>
     <row r="37">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>307121.1606312305</v>
+        <v>308387.9694737226</v>
       </c>
       <c r="D37">
-        <v>5796563.883991712</v>
+        <v>6142068.804557728</v>
       </c>
     </row>
     <row r="38">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>376900.0070626488</v>
+        <v>383177.8486648701</v>
       </c>
       <c r="D38">
-        <v>6237651.932332178</v>
+        <v>6160173.892508376</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>315141.3605453873</v>
+        <v>311625.1590885411</v>
       </c>
       <c r="D39">
-        <v>6115343.77926743</v>
+        <v>6179968.763977601</v>
       </c>
     </row>
     <row r="40">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>395736.3848630947</v>
+        <v>403073.9805940726</v>
       </c>
       <c r="D40">
-        <v>6594699.570242135</v>
+        <v>6893538.452178525</v>
       </c>
     </row>
     <row r="41">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>332151.8833788686</v>
+        <v>323105.0255729975</v>
       </c>
       <c r="D41">
-        <v>6408389.21892773</v>
+        <v>6309060.539675921</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>414340.4512795917</v>
+        <v>408839.1802508808</v>
       </c>
       <c r="D42">
-        <v>7083678.377894247</v>
+        <v>6755345.248685056</v>
       </c>
     </row>
     <row r="43">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>337174.9689458029</v>
+        <v>331182.1553523525</v>
       </c>
       <c r="D43">
-        <v>6272715.131849675</v>
+        <v>6350394.521844259</v>
       </c>
     </row>
     <row r="44">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>434562.1452105253</v>
+        <v>428550.3781013713</v>
       </c>
       <c r="D44">
-        <v>7483315.324386666</v>
+        <v>7179537.854637717</v>
       </c>
     </row>
     <row r="45">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>348270.1869347201</v>
+        <v>343760.1527702849</v>
       </c>
       <c r="D45">
-        <v>7216531.563695573</v>
+        <v>6661692.191909239</v>
       </c>
     </row>
     <row r="46">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>439695.8526642642</v>
+        <v>444852.739353424</v>
       </c>
       <c r="D46">
-        <v>7306860.250600359</v>
+        <v>7454396.451802695</v>
       </c>
     </row>
     <row r="47">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>361068.3874859225</v>
+        <v>368823.1470201132</v>
       </c>
       <c r="D47">
-        <v>7375225.701111062</v>
+        <v>7425804.599861435</v>
       </c>
     </row>
     <row r="48">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>452646.2191668479</v>
+        <v>466006.6388192006</v>
       </c>
       <c r="D48">
-        <v>7717742.77898027</v>
+        <v>8173536.057524259</v>
       </c>
     </row>
     <row r="49">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>375941.8418153134</v>
+        <v>375376.4734009225</v>
       </c>
       <c r="D49">
-        <v>7407943.433461562</v>
+        <v>7657070.475227072</v>
       </c>
     </row>
     <row r="50">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>475111.3979341791</v>
+        <v>474853.499889894</v>
       </c>
       <c r="D50">
-        <v>8171725.693400482</v>
+        <v>8169544.22841406</v>
       </c>
     </row>
     <row r="51">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>398449.618121041</v>
+        <v>385074.7047067174</v>
       </c>
       <c r="D51">
-        <v>8187788.709058062</v>
+        <v>8004702.332516589</v>
       </c>
     </row>
     <row r="52">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>486933.7983064888</v>
+        <v>497145.2753846265</v>
       </c>
       <c r="D52">
-        <v>8201815.034154096</v>
+        <v>8360762.527979077</v>
       </c>
     </row>
     <row r="53">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>405395.3103687125</v>
+        <v>404781.7325153761</v>
       </c>
       <c r="D53">
-        <v>8398869.338449296</v>
+        <v>8078095.317652422</v>
       </c>
     </row>
     <row r="54">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>521729.5269609775</v>
+        <v>529782.6201960857</v>
       </c>
       <c r="D54">
-        <v>9309397.855613323</v>
+        <v>9847492.315465968</v>
       </c>
     </row>
     <row r="55">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>428122.0387365142</v>
+        <v>425239.2755891493</v>
       </c>
       <c r="D55">
-        <v>8786848.773638571</v>
+        <v>9090378.947546748</v>
       </c>
     </row>
     <row r="56">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>539880.2394642982</v>
+        <v>537690.1155973807</v>
       </c>
       <c r="D56">
-        <v>9722258.439742075</v>
+        <v>9211756.172839873</v>
       </c>
     </row>
     <row r="57">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>442538.0567084525</v>
+        <v>431999.6878211485</v>
       </c>
       <c r="D57">
-        <v>9509103.116317932</v>
+        <v>8930407.954109699</v>
       </c>
     </row>
     <row r="58">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>566743.4314630318</v>
+        <v>564579.1802177716</v>
       </c>
       <c r="D58">
-        <v>10411172.17021675</v>
+        <v>9715340.163881358</v>
       </c>
     </row>
     <row r="59">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>450310.3911179852</v>
+        <v>456234.5002485815</v>
       </c>
       <c r="D59">
-        <v>9814136.573801987</v>
+        <v>9820723.944034839</v>
       </c>
     </row>
     <row r="60">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>588291.3453801589</v>
+        <v>574904.6982653146</v>
       </c>
       <c r="D60">
-        <v>10651531.50533955</v>
+        <v>9747154.650439663</v>
       </c>
     </row>
     <row r="61">
@@ -1333,10 +1333,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>473215.2083666567</v>
+        <v>474409.8566649742</v>
       </c>
       <c r="D61">
-        <v>9965581.575594407</v>
+        <v>9956254.577933142</v>
       </c>
     </row>
     <row r="62">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>604256.9529331543</v>
+        <v>612236.7457430974</v>
       </c>
       <c r="D62">
-        <v>10672263.15056216</v>
+        <v>10843354.01454081</v>
       </c>
     </row>
     <row r="63">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>488306.9313751507</v>
+        <v>483544.466007844</v>
       </c>
       <c r="D63">
-        <v>10627412.88308293</v>
+        <v>9979545.969117291</v>
       </c>
     </row>
     <row r="64">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>635174.4085525</v>
+        <v>638577.4101362601</v>
       </c>
       <c r="D64">
-        <v>11589105.40096766</v>
+        <v>11693946.14386442</v>
       </c>
     </row>
     <row r="65">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>509635.8067099658</v>
+        <v>506838.7023990223</v>
       </c>
       <c r="D65">
-        <v>10937771.75074042</v>
+        <v>10755515.55991015</v>
       </c>
     </row>
     <row r="66">
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>663777.9669723929</v>
+        <v>666457.5486243605</v>
       </c>
       <c r="D66">
-        <v>11828699.46755049</v>
+        <v>11974173.91994698</v>
       </c>
     </row>
     <row r="67">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>535737.9011996423</v>
+        <v>526734.7918895975</v>
       </c>
       <c r="D67">
-        <v>11800669.86064315</v>
+        <v>11446513.01391644</v>
       </c>
     </row>
     <row r="68">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>703463.8566378691</v>
+        <v>691564.8694925266</v>
       </c>
       <c r="D68">
-        <v>13070363.7578109</v>
+        <v>12123489.57172478</v>
       </c>
     </row>
     <row r="69">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>555912.7821239176</v>
+        <v>564703.0952559499</v>
       </c>
       <c r="D69">
-        <v>12193770.0540021</v>
+        <v>12399230.46561517</v>
       </c>
     </row>
     <row r="70">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>730647.8631268999</v>
+        <v>724569.2113236131</v>
       </c>
       <c r="D70">
-        <v>13504894.77225317</v>
+        <v>13208864.19940976</v>
       </c>
     </row>
     <row r="71">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>586545.1080641474</v>
+        <v>576637.640355703</v>
       </c>
       <c r="D71">
-        <v>12588809.97686623</v>
+        <v>12718664.10246322</v>
       </c>
     </row>
     <row r="72">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>777339.582129105</v>
+        <v>759200.6251022329</v>
       </c>
       <c r="D72">
-        <v>14837852.51632469</v>
+        <v>14357115.87306739</v>
       </c>
     </row>
     <row r="73">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>592447.5967144662</v>
+        <v>586478.9669595193</v>
       </c>
       <c r="D73">
-        <v>12722246.54436351</v>
+        <v>13211878.16096432</v>
       </c>
     </row>
     <row r="74">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>791345.8971364649</v>
+        <v>801077.2157325165</v>
       </c>
       <c r="D74">
-        <v>14986603.78961671</v>
+        <v>15346162.06822815</v>
       </c>
     </row>
     <row r="75">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>617845.4212329453</v>
+        <v>619688.4941384873</v>
       </c>
       <c r="D75">
-        <v>13747717.44090352</v>
+        <v>13859775.59866659</v>
       </c>
     </row>
     <row r="76">
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>851169.4986966347</v>
+        <v>843529.7146916024</v>
       </c>
       <c r="D76">
-        <v>16713721.95441804</v>
+        <v>16033640.16278241</v>
       </c>
     </row>
     <row r="77">
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>650308.6583429801</v>
+        <v>646341.4024324459</v>
       </c>
       <c r="D77">
-        <v>14690731.59699962</v>
+        <v>14654193.5723558</v>
       </c>
     </row>
     <row r="78">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>890249.5406403703</v>
+        <v>883121.4850238687</v>
       </c>
       <c r="D78">
-        <v>17082082.55285689</v>
+        <v>16889689.78161221</v>
       </c>
     </row>
     <row r="79">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>668465.5021828348</v>
+        <v>668313.3782538073</v>
       </c>
       <c r="D79">
-        <v>15038260.24479509</v>
+        <v>14369568.53852926</v>
       </c>
     </row>
     <row r="80">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>914832.6897777014</v>
+        <v>918408.6046744403</v>
       </c>
       <c r="D80">
-        <v>16935891.52299247</v>
+        <v>17525542.92431369</v>
       </c>
     </row>
     <row r="81">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>690757.6239196802</v>
+        <v>679188.9148209656</v>
       </c>
       <c r="D81">
-        <v>16042230.76317083</v>
+        <v>14917654.00792563</v>
       </c>
     </row>
     <row r="82">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>953520.5410021156</v>
+        <v>948605.2463014541</v>
       </c>
       <c r="D82">
-        <v>17757870.11364825</v>
+        <v>17524385.27774261</v>
       </c>
     </row>
     <row r="83">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>693045.0494547768</v>
+        <v>714139.2693486104</v>
       </c>
       <c r="D83">
-        <v>15038260.24479509</v>
+        <v>15788355.94634225</v>
       </c>
     </row>
     <row r="84">
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>980967.5735029543</v>
+        <v>999489.4799971901</v>
       </c>
       <c r="D84">
-        <v>17728229.69837024</v>
+        <v>18562946.59693217</v>
       </c>
     </row>
     <row r="85">
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>711724.1816840619</v>
+        <v>713810.3748676141</v>
       </c>
       <c r="D85">
-        <v>15040311.03505975</v>
+        <v>15038260.24479509</v>
       </c>
     </row>
     <row r="86">
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>737180.0616128559</v>
+        <v>731489.8925301464</v>
       </c>
       <c r="D86">
-        <v>15751905.0000233</v>
+        <v>15038260.24479509</v>
       </c>
     </row>
     <row r="87">
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>1051442.435492959</v>
+        <v>1056659.003516712</v>
       </c>
       <c r="D87">
-        <v>18420690.50386007</v>
+        <v>18357270.10766722</v>
       </c>
     </row>
     <row r="88">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>736671.6648618352</v>
+        <v>737495.3516164561</v>
       </c>
       <c r="D88">
-        <v>14865293.81645909</v>
+        <v>14369900.24569262</v>
       </c>
     </row>
     <row r="89">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>1105001.315715532</v>
+        <v>1089654.874806792</v>
       </c>
       <c r="D89">
-        <v>18908165.72564171</v>
+        <v>18357270.10766722</v>
       </c>
     </row>
     <row r="90">
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>771380.1591834365</v>
+        <v>777320.5431127528</v>
       </c>
       <c r="D90">
-        <v>14511918.0656373</v>
+        <v>15067382.61764885</v>
       </c>
     </row>
   </sheetData>
